--- a/data/trans_camb/P19C04-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>0.7026960375353219</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.374741678727366</v>
+        <v>-2.374741678727367</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>1.750073341311129</v>
@@ -664,7 +664,7 @@
         <v>-2.044354861844354</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-3.815060180425313</v>
+        <v>-3.815060180425311</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.151713107564794</v>
+        <v>-4.043826168644869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.375365564563689</v>
+        <v>-8.494172639501139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.607388514068251</v>
+        <v>-8.571518815406455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.352601489323942</v>
+        <v>-1.268926919614997</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.941427856022908</v>
+        <v>-3.50999492962791</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.1969920823138</v>
+        <v>-6.217554358598735</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.750250258709136</v>
+        <v>-2.09041121190944</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.485648374418961</v>
+        <v>-5.380366770808983</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-6.828283015239093</v>
+        <v>-6.810051345213789</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.354103384075977</v>
+        <v>6.245250115799249</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.033017520335628</v>
+        <v>0.6127940492959807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.4800982201336501</v>
+        <v>-0.3249546469070932</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.569191682240287</v>
+        <v>8.945357511544659</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.508645474699461</v>
+        <v>5.007408362732154</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8397281565518679</v>
+        <v>0.7962922121019893</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.613591569296581</v>
+        <v>5.568166430706976</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8523359450827985</v>
+        <v>0.9434937096991314</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-1.14626335187067</v>
+        <v>-0.8719428542936996</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.09986016342330357</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3374746397569159</v>
+        <v>-0.337474639756916</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1671340652523121</v>
@@ -769,7 +769,7 @@
         <v>-0.1952382970546784</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3643427404356675</v>
+        <v>-0.3643427404356674</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2846945472407</v>
+        <v>-0.2733475205925589</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5545371325923527</v>
+        <v>-0.5604088220797208</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5604860967572908</v>
+        <v>-0.5508098944263726</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1574198697047992</v>
+        <v>-0.1619854830062793</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4109220893898737</v>
+        <v>-0.396692402716956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6300028730488428</v>
+        <v>-0.6134627037111343</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1442363112363311</v>
+        <v>-0.1785126040756913</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4442665179919761</v>
+        <v>-0.4305485014129874</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5378022831552701</v>
+        <v>-0.5438307368867236</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5242555986510009</v>
+        <v>0.5919841542251957</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1170838204913877</v>
+        <v>0.05842345399900659</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.0317412394196453</v>
+        <v>-0.02029794308426593</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.769444246642325</v>
+        <v>1.71690945582439</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9309481686930304</v>
+        <v>1.033787334439366</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1800913952753237</v>
+        <v>0.1729441617263713</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.65957165518409</v>
+        <v>0.6295034342751502</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1067568850794998</v>
+        <v>0.1093996951563578</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1245769679784511</v>
+        <v>-0.09559449536630935</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.836961450059763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.341585309668657</v>
+        <v>-5.341585309668659</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.046267221427186</v>
@@ -869,7 +869,7 @@
         <v>-1.533149453647353</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.756115998025157</v>
+        <v>-1.756115998025156</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.472036009358392</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.429145578753112</v>
+        <v>-6.783815949030137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.116646287907299</v>
+        <v>-8.475374736318212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.46399931729431</v>
+        <v>-10.31839341015524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.484862541666269</v>
+        <v>-1.309675593150649</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.191624033731259</v>
+        <v>-5.675169836866086</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.747178625834937</v>
+        <v>-5.951506030267527</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.931585680869605</v>
+        <v>-2.231263148666314</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.702588369503024</v>
+        <v>-5.306063059195408</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.53573063826355</v>
+        <v>-6.482280657096492</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.951913546542048</v>
+        <v>5.426543925262764</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.010368202989818</v>
+        <v>3.289398040118557</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.09852044952316659</v>
+        <v>-0.2928269620666576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.971378355562002</v>
+        <v>7.739702970340531</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.716122425232132</v>
+        <v>2.321210643287406</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.588058029084678</v>
+        <v>1.762306288814604</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.326534053040535</v>
+        <v>5.141357502180696</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.556277026436436</v>
+        <v>1.532465269776194</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-0.225588968981165</v>
+        <v>-0.243529337014182</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1836102017001552</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3457112736185354</v>
+        <v>-0.3457112736185355</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4002256141111987</v>
@@ -974,7 +974,7 @@
         <v>-0.201428711602912</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2307225705008359</v>
+        <v>-0.2307225705008357</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1299826620250669</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3528410234382713</v>
+        <v>-0.3690650911667552</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4886432462915395</v>
+        <v>-0.4632169933479353</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5567909656548904</v>
+        <v>-0.555985330436504</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1624964107093607</v>
+        <v>-0.1369823990297334</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5571742668447391</v>
+        <v>-0.574579144922889</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5545156352849634</v>
+        <v>-0.5506516497750847</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1644691389318777</v>
+        <v>-0.1798542841452577</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4338825485985255</v>
+        <v>-0.4102965661091029</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4780753528010903</v>
+        <v>-0.4706910600679301</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3973184644532118</v>
+        <v>0.432484543958194</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2575853085287327</v>
+        <v>0.2863309621162826</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.002278098201908271</v>
+        <v>-0.02303629408885715</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.451319360831918</v>
+        <v>1.57522401316027</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5239873622635579</v>
+        <v>0.4999086320633256</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3195381700368701</v>
+        <v>0.3468370601984079</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5470567756565398</v>
+        <v>0.5331837263801533</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1681082232468446</v>
+        <v>0.1656626345246904</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.00859325396659975</v>
+        <v>-0.02168277231622446</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>1.902239496466965</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.257734701378733</v>
+        <v>-3.257734701378734</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.059550602330468</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6994824714750351</v>
+        <v>-0.9828806835484215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.442760892926989</v>
+        <v>-8.486439761203265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-11.41816033462196</v>
+        <v>-10.55083054760066</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.34689716882486</v>
+        <v>-10.18899471436879</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.02167151057609</v>
+        <v>-7.084208125289583</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.24772678014549</v>
+        <v>-10.04624514603696</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.249935953888437</v>
+        <v>-2.380519994299302</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.430918414854306</v>
+        <v>-6.898075416995518</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-9.595688340101658</v>
+        <v>-9.471875249948329</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.22344467214927</v>
+        <v>10.35146811284825</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.302271794086054</v>
+        <v>2.652663031177475</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.8479945773612705</v>
+        <v>-0.1350350060026531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.809091900211473</v>
+        <v>3.313747911614382</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.86923540736375</v>
+        <v>10.89070787847389</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.237304867825076</v>
+        <v>2.826466000393733</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.457846701111309</v>
+        <v>6.637861128989926</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.976820577809205</v>
+        <v>2.728515568313759</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-1.138177099305928</v>
+        <v>-0.7279525627609398</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02833203958687045</v>
+        <v>-0.03624888340919952</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3542446043066222</v>
+        <v>-0.3455842833202675</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4598359679957015</v>
+        <v>-0.4385969852998731</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5502606314420342</v>
+        <v>-0.5473154665195302</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3581622503095608</v>
+        <v>-0.4117371929980045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5617287549489058</v>
+        <v>-0.5471892210978431</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1069422515517919</v>
+        <v>-0.1081006981449153</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2966009604972681</v>
+        <v>-0.3091676470079376</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4384224618965891</v>
+        <v>-0.4367312967309531</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.552902654309704</v>
+        <v>0.5623997418407795</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.132383174871108</v>
+        <v>0.164446307467215</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.04362218443476189</v>
+        <v>-0.004905006055919122</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.404542177259655</v>
+        <v>0.3663374340532337</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.201015734401941</v>
+        <v>1.030348116846326</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3609169109395271</v>
+        <v>0.3216238284364</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3959092437060286</v>
+        <v>0.391932663772062</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1807643010546121</v>
+        <v>0.1614516600051479</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.0576427305968045</v>
+        <v>-0.0318168123329061</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-4.009654889996931</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.020031348501748</v>
+        <v>-6.020031348501745</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.853246808013419</v>
+        <v>3.232018635483885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.053814164337993</v>
+        <v>-8.021550967085906</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.602554376620134</v>
+        <v>-10.11348118922944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.053542787590277</v>
+        <v>-4.776933037908138</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-7.485806600060059</v>
+        <v>-7.605171260431335</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.828063485195864</v>
+        <v>-8.470967994233799</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.004070895611759</v>
+        <v>1.030076294883618</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.780184522533292</v>
+        <v>-6.8349079155434</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.72849169836385</v>
+        <v>-8.759687824712147</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.63281116768432</v>
+        <v>11.50123671538456</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09579987693333041</v>
+        <v>-0.03783881126831289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.450343659207805</v>
+        <v>-2.444436938021153</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.484901123418804</v>
+        <v>3.61459922524846</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2864755086112001</v>
+        <v>0.2427156878288466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.752524036793526</v>
+        <v>-1.671825371576216</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.026800791024542</v>
+        <v>6.974302404310649</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.312083468415405</v>
+        <v>-1.15392218981108</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.309439725015505</v>
+        <v>-3.42926713764936</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1867957593491887</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.280452148102493</v>
+        <v>-0.2804521481024929</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1088957180987871</v>
+        <v>0.1128904324404686</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3013084747108037</v>
+        <v>-0.2990307783563879</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3558545245889319</v>
+        <v>-0.3675648361077391</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2741263886294892</v>
+        <v>-0.2559347801774594</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4126646602741095</v>
+        <v>-0.4183722926061941</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4716886042749728</v>
+        <v>-0.4673331937762321</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04415281684479252</v>
+        <v>0.04478259051015242</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2988129702425147</v>
+        <v>-0.2964605185342598</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3764388836871757</v>
+        <v>-0.3721198977205396</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5060874010881823</v>
+        <v>0.4906241984641916</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.002155118836889414</v>
+        <v>-0.0008013029215465164</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1066209477534705</v>
+        <v>-0.1089490974494428</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2496664564587503</v>
+        <v>0.2626083295964629</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.02097579138592044</v>
+        <v>0.01796761391997093</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1265492820933473</v>
+        <v>-0.1193299233112876</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3446026868239561</v>
+        <v>0.3478642706078556</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.06668582848469701</v>
+        <v>-0.05945657187713602</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1660332802138175</v>
+        <v>-0.1672603426148945</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.239004844921237</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4.608648704313848</v>
+        <v>4.608648704313858</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.051272445830389</v>
@@ -1511,7 +1511,7 @@
         <v>-4.396655019181636</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-2.024263932291337</v>
+        <v>-2.024263932291334</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.020744982127687</v>
@@ -1520,7 +1520,7 @@
         <v>-0.7306443396392165</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.7459588221865932</v>
+        <v>0.7459588221865959</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.039633314219978</v>
+        <v>1.478826957209821</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.152765980146446</v>
+        <v>-3.920287686694692</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.292561437306531</v>
+        <v>-2.013148831587398</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.242034651717016</v>
+        <v>-0.7915606807907279</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-8.976572143870689</v>
+        <v>-9.33640757655019</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.798113307628574</v>
+        <v>-6.956746691908287</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.829363209756769</v>
+        <v>1.958291241422849</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.970983634902995</v>
+        <v>-5.114607440272354</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-3.274003957205827</v>
+        <v>-2.939249138115546</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.21998130874027</v>
+        <v>16.21820296945621</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.42090323934865</v>
+        <v>10.07689034654438</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.02352655358531</v>
+        <v>11.45528937491018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9.285748259703581</v>
+        <v>9.253828041386647</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.4069439743913549</v>
+        <v>0.4317472238331995</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.915655855133963</v>
+        <v>2.39560983359837</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>10.37766307149684</v>
+        <v>10.36994980965886</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.604427327444124</v>
+        <v>3.235770979534208</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.344431621835076</v>
+        <v>4.671559673655952</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1327794901941841</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1889265545256572</v>
+        <v>0.1889265545256576</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2036374385373603</v>
@@ -1616,7 +1616,7 @@
         <v>-0.2209981131138324</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.1017497410028864</v>
+        <v>-0.1017497410028863</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2803078453454325</v>
@@ -1625,7 +1625,7 @@
         <v>-0.03401661109481644</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.03472960751273121</v>
+        <v>0.03472960751273135</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.06923624463945788</v>
+        <v>0.05003653231875988</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1454131659138858</v>
+        <v>-0.1342976400602992</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.07624953063687609</v>
+        <v>-0.07644464635299512</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05888141146038127</v>
+        <v>-0.03978133730969787</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.398316863435877</v>
+        <v>-0.4128917223878494</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2942008205875322</v>
+        <v>-0.2975057079162252</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.07721479112962923</v>
+        <v>0.08358326023448155</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2070269671683529</v>
+        <v>-0.2056537080256781</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1337206009112142</v>
+        <v>-0.1236024022760955</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8088175957421837</v>
+        <v>0.7803508787101922</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5302189134037246</v>
+        <v>0.5100601711277764</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.620900593376468</v>
+        <v>0.5467376263361431</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5300367397930642</v>
+        <v>0.5411054288742622</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03548774959290731</v>
+        <v>0.02259357650945521</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1151647295863734</v>
+        <v>0.1487627426916</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5347743139676115</v>
+        <v>0.5420293343858258</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1991905359003969</v>
+        <v>0.1756427475477233</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2219668681598929</v>
+        <v>0.2436544354778556</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>0.1951966478382361</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-3.152404002152412</v>
+        <v>-3.152404002152415</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.634310934648605</v>
@@ -1734,7 +1734,7 @@
         <v>-0.2035366603020838</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-3.225119765044765</v>
+        <v>-3.225119765044766</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.085929676171667</v>
+        <v>-6.195009479566962</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.629067043786959</v>
+        <v>-5.736280335679906</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.642395487914152</v>
+        <v>-8.817418217356416</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>0.9207572942986662</v>
+        <v>0.9561047793943428</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-3.959115762703774</v>
+        <v>-3.493883186443489</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-6.444020672989495</v>
+        <v>-6.226950172231793</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.5113812276130755</v>
+        <v>0.5476176968642067</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-3.162795379459996</v>
+        <v>-3.260603095557395</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-6.046015046459936</v>
+        <v>-5.636236996264619</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.288890236167701</v>
+        <v>5.64378113732692</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.589844923100969</v>
+        <v>5.217084446661382</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.767577049165094</v>
+        <v>4.668391392163019</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.259120618043239</v>
+        <v>8.317654315232737</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.639756001607962</v>
+        <v>3.704203692905756</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.2428092797709309</v>
+        <v>-0.2512282033314554</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.829482749587146</v>
+        <v>6.483159463962955</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.233958336988763</v>
+        <v>2.710696449430871</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.4011741865373729</v>
+        <v>-0.4351450667410939</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.01204248757840632</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.1944848257307134</v>
+        <v>-0.1944848257307136</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.242112653009186</v>
@@ -1839,7 +1839,7 @@
         <v>-0.01355932436615572</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.2148529161726359</v>
+        <v>-0.214852916172636</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4542559927351263</v>
+        <v>-0.4881547082386233</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4474686897741446</v>
+        <v>-0.4602496946589403</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7432476941116956</v>
+        <v>-0.7231324291110971</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.05057681272632523</v>
+        <v>0.04711461424854001</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2110340047404065</v>
+        <v>-0.1975053883082824</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3537415792464444</v>
+        <v>-0.3504533357596833</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02570687170992311</v>
+        <v>0.03147751053765674</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.1885854763555693</v>
+        <v>-0.1957830562148053</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3638146751928159</v>
+        <v>-0.347839557263573</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.8072050264225679</v>
+        <v>0.9177528370471358</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8845839240444012</v>
+        <v>0.7903701051219905</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7037114466852207</v>
+        <v>0.7561268899489149</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.568194366613895</v>
+        <v>0.5622743208858271</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2523598928308593</v>
+        <v>0.2560427306283569</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.01869424040269244</v>
+        <v>-0.0161226277013727</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4956511533181328</v>
+        <v>0.4785934894650906</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.2376118574213364</v>
+        <v>0.1982757818276963</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.0220813970440733</v>
+        <v>-0.0293753257538249</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-2.05044488200101</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-3.722047828608696</v>
+        <v>-3.722047828608699</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>2.876062860397838</v>
@@ -1939,7 +1939,7 @@
         <v>-1.613729150385026</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-3.202196494044156</v>
+        <v>-3.202196494044157</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>3.83528546884242</v>
@@ -1948,7 +1948,7 @@
         <v>-1.771236307725463</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-3.389867122604462</v>
+        <v>-3.389867122604465</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>2.633357093671481</v>
+        <v>2.535235462476277</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.261349009878618</v>
+        <v>-4.418403059979345</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.642843316971934</v>
+        <v>-5.897677256082384</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.9184998835898788</v>
+        <v>0.9413014769360273</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-3.530531553678615</v>
+        <v>-3.350383940562619</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-4.825916649320396</v>
+        <v>-4.869747618087612</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.320971219429059</v>
+        <v>2.367347110259872</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.231237259765448</v>
+        <v>-3.211803126152689</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.709469940291468</v>
+        <v>-4.689554928484225</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.196373152930842</v>
+        <v>7.041066234641895</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.2140706035315695</v>
+        <v>0.02594871413464489</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.332365408264026</v>
+        <v>-1.801662986730305</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>4.789107034288637</v>
+        <v>4.741700177565021</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.2266036897987516</v>
+        <v>0.2889698895808422</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.611221968983961</v>
+        <v>-1.615024889963452</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.32539988512683</v>
+        <v>5.435818596330642</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.2203261569973916</v>
+        <v>-0.2147930197602655</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-2.14522044240215</v>
+        <v>-2.05099662401472</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.1027077187843978</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1864390723391472</v>
+        <v>-0.1864390723391474</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.1957466266026655</v>
@@ -2044,7 +2044,7 @@
         <v>-0.1098314093853148</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.2179434844971781</v>
+        <v>-0.2179434844971782</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2232378071014642</v>
@@ -2053,7 +2053,7 @@
         <v>-0.1030971259916331</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1973116496707543</v>
+        <v>-0.1973116496707545</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1211487662447799</v>
+        <v>0.1169248053280656</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2055655850410531</v>
+        <v>-0.2078381585996832</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2722309386258087</v>
+        <v>-0.2770980347773884</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.06003843977260358</v>
+        <v>0.06283174993817611</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.2260015792453049</v>
+        <v>-0.213945326689326</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.3002575953782224</v>
+        <v>-0.3096598235601879</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1278208826157912</v>
+        <v>0.1317727391034392</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1798340933809117</v>
+        <v>-0.1810386096323273</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.2609232074599332</v>
+        <v>-0.2587359054798436</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3826900972158007</v>
+        <v>0.3754672349235734</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.01108082955093163</v>
+        <v>0.005706627313409453</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.07413104386546333</v>
+        <v>-0.092603368510007</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3503897713777162</v>
+        <v>0.3457646161633166</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01223971413080589</v>
+        <v>0.02084731765465363</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.1155430392732228</v>
+        <v>-0.1178543743756737</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.3195947201385873</v>
+        <v>0.3338808644708718</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.01285222834928833</v>
+        <v>-0.0139905456550573</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1297524986218221</v>
+        <v>-0.1251768534351027</v>
       </c>
     </row>
     <row r="46">
